--- a/data/income_statement/3digits/total/581_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/581_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>581-Publishing of books, periodicals and other publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>581-Publishing of books, periodicals and other publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3855535.339850001</v>
+        <v>3855535.33985</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>4331404.925929999</v>
@@ -959,34 +865,39 @@
         <v>4705125.2518</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5007075.86127</v>
+        <v>5008314.78688</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5010108.35052</v>
+        <v>5013208.55132</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5225037.94059</v>
+        <v>5227960.63934</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5368280.8128</v>
+        <v>5385331.12065</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5824326.87384</v>
+        <v>5836391.39466</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>6701442.969649999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7189855.098210001</v>
+        <v>7201405.06001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7710947.03909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7817573.59622</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7663563.694</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3785066.93536</v>
@@ -995,37 +906,42 @@
         <v>4249124.41215</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4596691.89723</v>
+        <v>4596691.897229999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4886229.2116</v>
+        <v>4887468.137209999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4913568.231439999</v>
+        <v>4915978.94213</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5106058.720130001</v>
+        <v>5108981.41888</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5249432.34686</v>
+        <v>5266382.639479999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5653391.05346</v>
+        <v>5664899.99543</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6536427.224200001</v>
+        <v>6536427.2242</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6948169.76292</v>
+        <v>6959632.728519999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7485200.44722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7590683.941860001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7404316.135</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>22764.89435</v>
@@ -1037,34 +953,39 @@
         <v>43252.84847</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>57133.9871</v>
+        <v>57133.98709999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>39191.03969</v>
+        <v>39877.42950999999</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>45372.09959000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>38721.82117</v>
+        <v>38730.76159</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>69867.86289</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>58777.27834999999</v>
+        <v>58777.27835</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>101228.90156</v>
+        <v>101292.49069</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>67311.94504999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>80419.61599999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>47703.51014</v>
@@ -1073,37 +994,42 @@
         <v>47230.80353</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>65180.5061</v>
+        <v>65180.50609999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>63712.66257</v>
+        <v>63712.66256999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>57349.07938999999</v>
+        <v>57352.17968000001</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>73607.12087</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>80126.64477000001</v>
+        <v>80217.71958</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>101067.95749</v>
+        <v>101623.53634</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>106238.4671</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>140456.43373</v>
+        <v>140479.8408</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>158434.64682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>159577.70931</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>178827.943</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>652952.74146</v>
@@ -1112,37 +1038,42 @@
         <v>666321.34985</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>636671.32147</v>
+        <v>636671.3214700001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>613234.9679200001</v>
+        <v>613458.6181000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>693221.2271700001</v>
+        <v>693591.1648299999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>746298.6315599999</v>
+        <v>746647.52481</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>837873.7705900001</v>
+        <v>838428.46568</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>863072.32122</v>
+        <v>863926.39199</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1119712.62042</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1103132.8024</v>
+        <v>1103534.03196</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1019718.74925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1022643.70367</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1037032.905</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>395138.5550399999</v>
@@ -1154,34 +1085,39 @@
         <v>431564.26102</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>455270.63681</v>
+        <v>455494.28699</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>527779.18175</v>
+        <v>528148.7444099999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>604084.92544</v>
+        <v>604433.81869</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>641685.21835</v>
+        <v>642232.95503</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>687197.8171699999</v>
+        <v>687906.8929499999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>812999.3678000001</v>
+        <v>812999.3678</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>853037.6476</v>
+        <v>853428.1354800001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>761531.1460900001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>764362.43522</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>707238.431</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>252843.3476</v>
@@ -1205,7 +1141,7 @@
         <v>186831.72122</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>134623.15469</v>
+        <v>134665.78829</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>269142.26356</v>
@@ -1214,13 +1150,18 @@
         <v>208565.34432</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>228362.74872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>228372.5688</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>285093.563</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>4970.83882</v>
@@ -1235,31 +1176,36 @@
         <v>16328.22673</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>19126.92993</v>
+        <v>19127.30493</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>11207.5978</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>9356.83102</v>
+        <v>9363.789429999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>41251.34936000001</v>
+        <v>41353.71075</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>37570.98906</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>41529.81048000001</v>
+        <v>41540.55216000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>29824.85444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>29908.69965</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>44700.911</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3202582.59839</v>
@@ -1271,34 +1217,39 @@
         <v>4068453.93033</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4393840.89335</v>
+        <v>4394856.16878</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4316887.12335</v>
+        <v>4319617.386489999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4478739.30903</v>
+        <v>4481313.11453</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4530407.04221</v>
+        <v>4546902.65497</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4961254.55262</v>
+        <v>4972465.00267</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>5581730.34923</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6086722.29581</v>
+        <v>6097871.028049999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6691228.28984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6794929.89255</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6626530.789</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2306873.81509</v>
@@ -1307,37 +1258,42 @@
         <v>2455850.0121</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2871314.392709999</v>
+        <v>2871314.39271</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>3148927.39022</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2940297.29989</v>
+        <v>2941067.88585</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3064164.56213</v>
+        <v>3064418.41307</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3028440.02834</v>
+        <v>3041311.73962</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3353627.34724</v>
+        <v>3357693.29145</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3944265.71545</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4518161.96283</v>
+        <v>4527253.802770001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4750897.73866</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4839615.46328</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4599785.578</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1281051.83675</v>
@@ -1352,31 +1308,36 @@
         <v>1754039.40526</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1816189.84342</v>
+        <v>1816954.1741</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1805811.74158</v>
+        <v>1805915.05591</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1563881.0911</v>
+        <v>1564032.7404</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1745459.04595</v>
+        <v>1748344.76994</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1898230.60332</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2267183.90762</v>
+        <v>2267435.61897</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2408107.70795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2432925.71428</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2289952.334</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>440889.94732</v>
@@ -1391,40 +1352,45 @@
         <v>537752.4974700001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>529468.7291700001</v>
+        <v>529474.9844500001</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>645885.2599100001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>691703.22646</v>
+        <v>701982.71452</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>845326.7229500001</v>
+        <v>845906.75958</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1233011.37</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1250191.18943</v>
+        <v>1256112.11138</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1269575.37826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1328075.59605</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1318818.006</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>565064.25686</v>
+        <v>565064.2568599998</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>620397.33577</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>743990.5120900002</v>
+        <v>743990.5120900001</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>825981.24841</v>
@@ -1433,28 +1399,33 @@
         <v>551215.97273</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>563134.112</v>
+        <v>563284.64861</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>717608.13463</v>
+        <v>720048.70855</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>731052.6493499998</v>
+        <v>731654.4632</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>764852.3773099999</v>
+        <v>764852.37731</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>947799.14087</v>
+        <v>950718.3475100001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1013184.64436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1018559.61626</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>958510.497</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>19867.77416</v>
@@ -1466,7 +1437,7 @@
         <v>27687.02359</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>31154.23908</v>
+        <v>31154.23908000001</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>43422.75457</v>
@@ -1475,10 +1446,10 @@
         <v>49333.44864</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>55247.57614999999</v>
+        <v>55247.57615</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>31788.92899</v>
+        <v>31787.29873</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>48171.36482</v>
@@ -1487,13 +1458,18 @@
         <v>52987.72491</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>60030.00808999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>60054.53669</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>32504.741</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>895708.7833</v>
@@ -1505,34 +1481,39 @@
         <v>1197139.53762</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1244913.50313</v>
+        <v>1245928.77856</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1376589.82346</v>
+        <v>1378549.50064</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1414574.7469</v>
+        <v>1416894.70146</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1501967.01387</v>
+        <v>1505590.91535</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1607627.20538</v>
+        <v>1614771.71122</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1637464.63378</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1568560.33298</v>
+        <v>1570617.22528</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1940330.55118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1955314.42927</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2026745.211</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>847921.7422400001</v>
@@ -1544,34 +1525,39 @@
         <v>1105840.51258</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1156007.30518</v>
+        <v>1157013.34509</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1208632.13051</v>
+        <v>1210590.14113</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1252304.59958</v>
+        <v>1254430.43069</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1305011.43169</v>
+        <v>1308155.84147</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1385663.77701</v>
+        <v>1390920.28146</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1428796.70353</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1518463.32347</v>
+        <v>1520378.51486</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1551037.47483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1558893.85984</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1557580.735</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>508.39863</v>
@@ -1589,7 +1575,7 @@
         <v>1463.08992</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>842.9479200000001</v>
+        <v>842.94792</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>266.61301</v>
@@ -1601,58 +1587,68 @@
         <v>769.14565</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>725.7035900000001</v>
+        <v>725.70359</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>2591.42929</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1698.546</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>492745.30071</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>571743.53759</v>
+        <v>571743.5375900001</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>620999.37508</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>658290.37106</v>
+        <v>658955.05833</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>670870.11765</v>
+        <v>672107.1210599999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>644249.3223400001</v>
+        <v>644969.0709299999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>651546.4117800001</v>
+        <v>652017.8253800001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>701207.22531</v>
+        <v>703205.10892</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>718360.59048</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>740348.0763200001</v>
+        <v>740686.32049</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>700775.5413399999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>703603.88223</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>688918.817</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>354668.0429000001</v>
+        <v>354668.0429</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>423396.83379</v>
@@ -1661,34 +1657,39 @@
         <v>483208.65076</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>495589.91932</v>
+        <v>495931.27196</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>536298.92294</v>
+        <v>537019.93015</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>607212.32932</v>
+        <v>608618.4118400001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>653198.4068999999</v>
+        <v>655871.40308</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>683162.9217899999</v>
+        <v>686421.54263</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>709666.9674000001</v>
+        <v>709666.9674</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>777389.54356</v>
+        <v>778966.49078</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>847670.5042000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>852698.5483199999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>866963.372</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>47787.04106</v>
@@ -1697,76 +1698,86 @@
         <v>212954.41988</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>91299.02504000001</v>
+        <v>91299.02503999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>88906.19795</v>
+        <v>88915.43347</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>167957.69295</v>
+        <v>167959.35951</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>162270.14732</v>
+        <v>162464.27077</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>196955.58218</v>
+        <v>197435.07388</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>221963.42837</v>
+        <v>223851.42976</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>208667.93025</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>50097.00951000001</v>
+        <v>50238.71042000002</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>389293.07635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>396420.56943</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>469164.476</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>443019.25912</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>456945.5300499999</v>
+        <v>456945.53005</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>686646.04346</v>
+        <v>686646.0434600001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>778437.9222799998</v>
+        <v>778437.9222799999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>940048.7618399999</v>
+        <v>940061.62616</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>290014.60617</v>
+        <v>290014.60766</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>525479.59926</v>
+        <v>525533.87353</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>720685.4733499999</v>
+        <v>720988.47111</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>329416.77091</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>839549.51691</v>
+        <v>839540.86285</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>636276.8241600001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>640338.4944699999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>734463.8370000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2632.99521</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>2028.76245</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1425.439</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>33.34448</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>403.31452</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>29247.485</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>46821.45406</v>
@@ -1853,7 +1874,7 @@
         <v>41057.25625999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>60755.61198</v>
+        <v>60755.61197999999</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>108684.27102</v>
@@ -1862,13 +1883,13 @@
         <v>92999.52721</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>91648.42921</v>
+        <v>91648.4307</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>80034.86392999999</v>
+        <v>80034.86393000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>36024.37649</v>
+        <v>36025.8964</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>65247.3909</v>
@@ -1877,16 +1898,21 @@
         <v>62243.57439</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>80338.50921999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>80339.61364</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>93188.272</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>476.69178</v>
+        <v>476.6917800000001</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>387.13326</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>362.90593</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1264.168</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>295016.3286199999</v>
+        <v>295016.32862</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>296577.46316</v>
@@ -1934,7 +1965,7 @@
         <v>301191.38722</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>326892.3279100001</v>
+        <v>326892.32791</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>321298.46331</v>
@@ -1946,7 +1977,7 @@
         <v>27684.04777</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>349871.63167</v>
+        <v>350017.39904</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>32776.59147</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>319385.76682</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>327816.197</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>640.4596</v>
@@ -1976,7 +2012,7 @@
         <v>28193.18582</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6662.222100000001</v>
+        <v>6662.2221</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>868.39922</v>
@@ -1991,22 +2027,27 @@
         <v>4454.01199</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8703.890520000001</v>
+        <v>8703.890519999999</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>3612.3415</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>7510.029</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>78759.43883999999</v>
+        <v>78759.43884</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>96707.09704000001</v>
+        <v>96707.09703999999</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>285490.03452</v>
@@ -2021,25 +2062,30 @@
         <v>125636.46835</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>349757.67179</v>
+        <v>349762.83194</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>263651.67963</v>
+        <v>263652.84921</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>125543.95644</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>368322.4529500001</v>
+        <v>368330.73177</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>118796.86604</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>118829.50259</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>177467.852</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1274.61428</v>
@@ -2072,13 +2118,18 @@
         <v>2442.52232</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>6324.914299999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>6324.9143</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>7863.061</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>17363.93225</v>
@@ -2132,31 +2188,36 @@
         <v>26906.52701</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>27449.51268</v>
+        <v>27462.377</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>32629.62947</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>36142.09424</v>
+        <v>36191.20836</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>35517.86114</v>
+        <v>35672.40204</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>77914.86689</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>78436.20467000001</v>
+        <v>78419.27179</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>105023.44338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>109051.37272</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>88681.334</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>116731.75089</v>
@@ -2168,40 +2229,45 @@
         <v>336487.66864</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>300233.65772</v>
+        <v>300256.18473</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>451987.70343</v>
+        <v>451987.7034299999</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>185084.70983</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>179197.02371</v>
+        <v>179243.20335</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>125617.31967</v>
+        <v>125758.32987</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>140369.06211</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>301246.47827</v>
+        <v>301300.4995</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>216377.3132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>216870.69598</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>212731.996</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>5708.18648</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>6847.428230000001</v>
+        <v>6847.42823</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>8968.554059999999</v>
@@ -2219,22 +2285,27 @@
         <v>13818.85628</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>14321.73628</v>
+        <v>14410.10804</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>6304.725799999999</v>
+        <v>6304.7258</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6320.77602</v>
+        <v>6351.27602</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2545.74301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2577.98896</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4429.572</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>50397.44258</v>
@@ -2246,7 +2317,7 @@
         <v>26528.53643</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>51480.95283999999</v>
+        <v>51480.95284</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>23119.84316</v>
@@ -2258,22 +2329,27 @@
         <v>13870.48586</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>25156.44884</v>
+        <v>25177.51502</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>23057.59071</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>64851.84113</v>
+        <v>64872.19706999999</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>57438.39677</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>27935.333</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>49.20795</v>
@@ -2297,7 +2373,7 @@
         <v>554.5303699999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>277.88308</v>
+        <v>277.8830799999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1689.68788</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>71.85917999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>201.334</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>49825.77951</v>
@@ -2333,25 +2414,30 @@
         <v>68691.16275</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>127518.87269</v>
+        <v>127525.63133</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>75279.03049</v>
+        <v>75279.03048999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>76929.05918</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>186260.69445</v>
+        <v>186263.85973</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>66823.42848999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>66860.71626</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>125731.64</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>739.22657</v>
@@ -2363,10 +2449,10 @@
         <v>2231.10876</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>5000.205759999999</v>
+        <v>5000.20576</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3237.41646</v>
+        <v>3237.416459999999</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>2774.58352</v>
@@ -2384,13 +2470,18 @@
         <v>2452.7257</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>6276.35473</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>6276.354729999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>10010.644</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>9.327030000000001</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>10002.58077</v>
@@ -2441,7 +2537,7 @@
         <v>10447.11741</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8064.64509</v>
+        <v>8087.1721</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>9618.52594</v>
@@ -2450,25 +2546,30 @@
         <v>61410.95123000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>19354.2481</v>
+        <v>19393.6691</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9350.953589999999</v>
+        <v>9382.52585</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>30932.56427</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>30896.17255</v>
+        <v>30896.17256</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>83221.53102000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>83645.38008000002</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>44423.473</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>227174.09462</v>
@@ -2480,34 +2581,39 @@
         <v>544869.1155600001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>219773.62744</v>
+        <v>219780.07458</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>475854.32698</v>
+        <v>475935.37789</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>289581.80674</v>
+        <v>289606.80894</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>504851.46967</v>
+        <v>504991.01352</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>350876.39992</v>
+        <v>351989.97162</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>286706.27208</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>335568.81426</v>
+        <v>335578.35512</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>319202.30321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>319342.094</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>208596.723</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>206440.67502</v>
@@ -2519,34 +2625,39 @@
         <v>491187.60044</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>217842.90413</v>
+        <v>217849.35127</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>474541.49469</v>
+        <v>474622.5456</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>150860.26757</v>
+        <v>150885.26977</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>168806.20485</v>
+        <v>168945.7487</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>175003.18307</v>
+        <v>176116.43902</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>284481.33048</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>329285.90962</v>
+        <v>329295.42498</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>312278.80849</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>312418.59928</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>204418.645</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>20733.4196</v>
@@ -2570,22 +2681,27 @@
         <v>336045.26482</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>175873.21685</v>
+        <v>175873.5326</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>2224.9416</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6282.90464</v>
+        <v>6282.930139999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6923.494720000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>6923.49472</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4178.078</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>146900.45467</v>
@@ -2597,34 +2713,39 @@
         <v>-103411.7157</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>347336.8350699999</v>
+        <v>347317.09644</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>180164.42438</v>
+        <v>180097.90435</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-22381.76308</v>
+        <v>-22212.64034</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>38386.68805999999</v>
+        <v>38734.73054</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>466155.18213</v>
+        <v>467091.59938</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>111009.36697</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>252831.23389</v>
+        <v>252900.71865</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>489990.2841</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>500546.2739199999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>782299.594</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>24565.31583</v>
@@ -2633,37 +2754,42 @@
         <v>16661.09011</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>87614.91682999999</v>
+        <v>87614.91683</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>224104.42882</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>32315.99563</v>
+        <v>32854.77658000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>317297.09231</v>
+        <v>317309.49317</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>866119.47851</v>
+        <v>866136.20994</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>43902.00218</v>
+        <v>44006.12407</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>128645.04238</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>356298.93615</v>
+        <v>356324.77313</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>47201.02642999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>47310.40315000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>107486.484</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>13953.4711</v>
@@ -2678,16 +2804,16 @@
         <v>1905.95935</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>877.1868499999999</v>
+        <v>1394.30765</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>662.3277</v>
+        <v>662.3276999999999</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>3664.58173</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>753.77032</v>
+        <v>753.7703200000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>503.18197</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>806.97537</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1233.645</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>10611.84473</v>
@@ -2717,31 +2848,36 @@
         <v>222198.46947</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>31438.80878</v>
+        <v>31460.46893</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>316634.76461</v>
+        <v>316647.1654699999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>862454.89678</v>
+        <v>862471.62821</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>43148.23186</v>
+        <v>43252.35375</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>128141.86041</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>355802.8128</v>
+        <v>355828.64978</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>46394.05106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>46503.42778</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>106252.839</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>23891.90395</v>
@@ -2753,34 +2889,39 @@
         <v>256446.49676</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>40211.12278000001</v>
+        <v>40346.41178</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>83003.80041</v>
+        <v>83007.78218999998</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>232088.09042</v>
+        <v>232090.1538300001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>155061.8617</v>
+        <v>155142.7895</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>114371.56704</v>
+        <v>114470.28945</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>86847.62988999998</v>
+        <v>86847.62989</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>103888.99515</v>
+        <v>103959.90652</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>114387.53227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>117194.84216</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>149700.419</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>539.13301</v>
@@ -2789,10 +2930,10 @@
         <v>1881.23894</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>851.26446</v>
+        <v>851.2644600000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>933.4832799999999</v>
+        <v>933.48328</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>1617.79234</v>
@@ -2804,7 +2945,7 @@
         <v>464.37417</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>81.01761</v>
+        <v>81.01793000000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>2069.48777</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>820.5178300000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>653.84</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2152.9635</v>
@@ -2843,7 +2989,7 @@
         <v>4549.13625</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3323.48137</v>
+        <v>3328.96887</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1902.28346</v>
@@ -2852,13 +2998,18 @@
         <v>1147.59658</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1443.38569</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1444.36833</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1804.806</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>21199.80744</v>
@@ -2870,34 +3021,39 @@
         <v>253714.87189</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>38073.75678</v>
+        <v>38209.04578</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>79205.91855</v>
+        <v>79209.90033000002</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>229267.94813</v>
+        <v>229270.01154</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>150048.35128</v>
+        <v>150129.27908</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>110967.06806</v>
+        <v>111060.30265</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>82875.85866000001</v>
+        <v>82875.85866</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>101261.09001</v>
+        <v>101332.00138</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>112123.62875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>114929.956</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>147241.773</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>147573.86655</v>
@@ -2909,37 +3065,42 @@
         <v>-272243.29563</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>531230.14111</v>
+        <v>531075.1134799999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>129476.6196</v>
+        <v>129944.89874</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>62827.23881</v>
+        <v>63006.699</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>749444.30487</v>
+        <v>749728.15098</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>395685.6172699999</v>
+        <v>396627.434</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>152806.77946</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>505241.1748899999</v>
+        <v>505265.5852599999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>422803.77826</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>430661.83491</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>740085.659</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>33147.53881</v>
+        <v>33147.53881000001</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>38529.25554999999</v>
@@ -2951,31 +3112,36 @@
         <v>66517.44826999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>58011.52224000001</v>
+        <v>58065.19611</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>54275.5036</v>
+        <v>54283.47487000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>74497.03262</v>
+        <v>74514.18443000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>68583.79549999999</v>
+        <v>68602.52</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>64263.00013</v>
+        <v>64263.00012999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>91235.53451000001</v>
+        <v>91310.33728000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>111001.56664</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>110944.19328</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>154118.234</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>114426.32774</v>
@@ -2984,34 +3150,37 @@
         <v>243515.94008</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-316732.2949100001</v>
+        <v>-316732.2949099999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>464712.69284</v>
+        <v>464557.6652100001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>71465.09736</v>
+        <v>71879.70263000006</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>8551.735209999997</v>
+        <v>8723.224129999995</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>674947.27225</v>
+        <v>675213.9665499999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>327101.8217699999</v>
+        <v>328024.914</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>88543.77933</v>
+        <v>88543.77933000002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>414005.64038</v>
+        <v>413955.24798</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>311802.21162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>319717.6416300001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>585967.425</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1669</v>
@@ -3041,31 +3213,34 @@
         <v>1804</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1944</v>
+        <v>1950</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1987</v>
+        <v>2004</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2051</v>
+        <v>2066</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2116</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2105</v>
+        <v>2151</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2215</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>